--- a/blueprint-jira-better-excel/_DevOps-Report.xlsx
+++ b/blueprint-jira-better-excel/_DevOps-Report.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
@@ -20,14 +20,14 @@
   </definedNames>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="70" r:id="rId3"/>
+    <pivotCache cacheId="49" r:id="rId3"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>Status</t>
   </si>
@@ -161,12 +161,6 @@
     <t>Aug</t>
   </si>
   <si>
-    <t>Jul Total</t>
-  </si>
-  <si>
-    <t>Aug Total</t>
-  </si>
-  <si>
     <t>(Multiple Items)</t>
   </si>
   <si>
@@ -183,39 +177,6 @@
   </si>
   <si>
     <t>${bpHelper.getLastSprintLabel(issue)}</t>
-  </si>
-  <si>
-    <t>Adam Fergus Total</t>
-  </si>
-  <si>
-    <t>Darren Martell Total</t>
-  </si>
-  <si>
-    <t>Warren Szeto Total</t>
-  </si>
-  <si>
-    <t>Alek Ohanian Total</t>
-  </si>
-  <si>
-    <t>Planned - Deployment and Release Total</t>
-  </si>
-  <si>
-    <t>Planned - Operational Efficiency Total</t>
-  </si>
-  <si>
-    <t>Planned - Platform Health Total</t>
-  </si>
-  <si>
-    <t>Production Support Total</t>
-  </si>
-  <si>
-    <t>Development/Internal Support Total</t>
-  </si>
-  <si>
-    <t>Others Total</t>
-  </si>
-  <si>
-    <t>Planned - Security Total</t>
   </si>
 </sst>
 </file>
@@ -298,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -335,14 +296,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -374,7 +329,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43315.643246180553" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43320.316444444441" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -645,8 +600,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="70" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -681,21 +636,21 @@
     </pivotField>
     <pivotField axis="axisRow" subtotalTop="0" showAll="0">
       <items count="15">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default" sd="0"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -716,62 +671,14 @@
     <field x="6"/>
     <field x="12"/>
   </rowFields>
-  <rowItems count="19">
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
     <i>
       <x v="7"/>
     </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="4"/>
-    </i>
-    <i t="default">
-      <x v="7"/>
-    </i>
     <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="2"/>
-    </i>
-    <i t="default">
       <x v="8"/>
     </i>
   </rowItems>
@@ -797,8 +704,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="70" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E1:F26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E3:F5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -820,24 +727,34 @@
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" subtotalTop="0" showAll="0">
       <items count="15">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default" sd="0"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -858,86 +775,20 @@
     <field x="3"/>
     <field x="12"/>
   </rowFields>
-  <rowItems count="25">
+  <rowItems count="2">
     <i>
       <x v="7"/>
     </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="7"/>
-    </i>
     <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
       <x v="8"/>
     </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="6" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Story Points" fld="10" baseField="12" baseItem="0"/>
   </dataFields>
@@ -1274,17 +1125,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.9296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.06640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1293,20 +1142,14 @@
         <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="12"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
@@ -1315,278 +1158,44 @@
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="12"/>
+      <c r="E3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="E4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="E4" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="F4" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="E5" s="14" t="s">
-        <v>56</v>
+      <c r="A5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="F5" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="16" t="s">
-        <v>47</v>
+      <c r="A6" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="B6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="12">
-        <v>1</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="E8" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="12">
-        <v>2</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="12">
-        <v>2</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="E11" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="12">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="12">
-        <v>4</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="E15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="E16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="12">
-        <v>1</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="12">
-        <v>1</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="E19" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="12">
-        <v>2</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="12">
-        <v>2</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="12">
-        <v>3</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E23" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E24" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E25" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E26" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="12">
         <v>3</v>
       </c>
     </row>
@@ -1656,10 +1265,10 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>15</v>
@@ -1703,10 +1312,10 @@
         <v>13</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>25</v>
@@ -1719,7 +1328,7 @@
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
@@ -1731,7 +1340,7 @@
       <c r="G4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="14">
         <v>43314</v>
       </c>
       <c r="K4" s="5">
@@ -1748,7 +1357,7 @@
       <c r="G5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>43313</v>
       </c>
       <c r="K5" s="5">
@@ -1765,7 +1374,7 @@
       <c r="G6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <v>43308</v>
       </c>
       <c r="K6" s="5">
@@ -1782,7 +1391,7 @@
       <c r="G7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <v>43312</v>
       </c>
       <c r="K7" s="5">
@@ -1799,7 +1408,7 @@
       <c r="G8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <v>43300</v>
       </c>
       <c r="K8" s="5">
@@ -1816,7 +1425,7 @@
       <c r="G9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <v>43313</v>
       </c>
       <c r="K9" s="5">
@@ -1833,7 +1442,7 @@
       <c r="G10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <v>43293</v>
       </c>
       <c r="K10" s="5">
@@ -1850,7 +1459,7 @@
       <c r="G11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <v>43299</v>
       </c>
       <c r="K11" s="5">
